--- a/results/visibilityTest/visibilityTest_normal.xlsx
+++ b/results/visibilityTest/visibilityTest_normal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>55918750</t>
+          <t>55763117</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -468,103 +468,103 @@
         <v>4.2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>55852656</t>
+          <t>55766121</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>12.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>55862633</t>
+          <t>55768880</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.2</v>
+        <v>12.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>55850187</t>
+          <t>55774247</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>8.300000000000001</v>
+        <v>20.9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>55766121</t>
+          <t>55776021</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>8.300000000000001</v>
+        <v>16.7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>55938914</t>
+          <t>55777851</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>55931580</t>
+          <t>55779767</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.4</v>
+        <v>8.4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9">
@@ -586,23 +586,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>55866572</t>
+          <t>55850187</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>12.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>55854618</t>
+          <t>55852656</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -612,20 +612,20 @@
         <v>12.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>55774247</t>
+          <t>55854618</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>20.9</v>
+        <v>12.5</v>
       </c>
       <c r="D12" t="n">
         <v>0.5</v>
@@ -634,7 +634,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>55777851</t>
+          <t>55860282</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -644,13 +644,13 @@
         <v>4.2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>55860282</t>
+          <t>55862633</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -660,20 +660,20 @@
         <v>4.2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>55868471</t>
+          <t>55864604</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.2</v>
+        <v>16.7</v>
       </c>
       <c r="D15" t="n">
         <v>0.6</v>
@@ -682,30 +682,30 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>55936390</t>
+          <t>55866572</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>8.300000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55779767</t>
+          <t>55868471</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="D17" t="n">
         <v>0.6</v>
@@ -714,7 +714,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>55951038</t>
+          <t>55918750</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -724,52 +724,52 @@
         <v>4.2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>55864604</t>
+          <t>55928394</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>16.7</v>
+        <v>5.5</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>55776021</t>
+          <t>55931580</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>16.7</v>
+        <v>12.4</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>55768880</t>
+          <t>55936390</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>12.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D21" t="n">
         <v>0.9</v>
@@ -778,17 +778,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>55928394</t>
+          <t>55938914</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>5.5</v>
+        <v>8.4</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23">
@@ -810,7 +810,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>55763117</t>
+          <t>55951038</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -820,7 +820,103 @@
         <v>4.2</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>56015648</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>56020297</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>56024896</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>56027303</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>56035722</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>56040135</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/results/visibilityTest/visibilityTest_normal.xlsx
+++ b/results/visibilityTest/visibilityTest_normal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,94 +458,94 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>55763117</t>
+          <t>55758322</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>55766121</t>
+          <t>55760307</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>8.300000000000001</v>
+        <v>16.7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>55768880</t>
+          <t>55763117</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5</v>
+        <v>4.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>55774247</t>
+          <t>55766121</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>20.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>55776021</t>
+          <t>55768880</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>16.7</v>
+        <v>12.5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>55777851</t>
+          <t>55774247</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>4.2</v>
+        <v>20.9</v>
       </c>
       <c r="D7" t="n">
         <v>0.5</v>
@@ -554,30 +554,30 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>55779767</t>
+          <t>55776021</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>8.4</v>
+        <v>16.7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>55781652</t>
+          <t>55777851</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="D9" t="n">
         <v>0.5</v>
@@ -586,14 +586,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>55850187</t>
+          <t>55779767</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="D10" t="n">
         <v>0.6</v>
@@ -602,62 +602,62 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>55852656</t>
+          <t>55781652</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>55854618</t>
+          <t>55850187</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>12.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>55860282</t>
+          <t>55852656</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>4.2</v>
+        <v>12.5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>55862633</t>
+          <t>55854618</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.2</v>
+        <v>12.5</v>
       </c>
       <c r="D14" t="n">
         <v>0.5</v>
@@ -666,46 +666,46 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>55864604</t>
+          <t>55860282</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>16.7</v>
+        <v>4.2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>55866572</t>
+          <t>55862633</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>12.5</v>
+        <v>4.2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55868471</t>
+          <t>55864604</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>4.2</v>
+        <v>16.7</v>
       </c>
       <c r="D17" t="n">
         <v>0.6</v>
@@ -714,110 +714,110 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>55918750</t>
+          <t>55866572</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>4.2</v>
+        <v>12.5</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>55928394</t>
+          <t>55868471</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>55931580</t>
+          <t>55916641</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>12.4</v>
+        <v>4.2</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>55936390</t>
+          <t>55918750</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>8.300000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>55938914</t>
+          <t>55928394</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>8.4</v>
+        <v>5.5</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>55949248</t>
+          <t>55931580</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>8.300000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>55951038</t>
+          <t>55936390</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>4.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D24" t="n">
         <v>0.9</v>
@@ -826,39 +826,39 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>56015648</t>
+          <t>55938914</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>4.2</v>
+        <v>8.4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>56020297</t>
+          <t>55949248</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>56024896</t>
+          <t>55951038</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -874,48 +874,96 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>56027303</t>
+          <t>56015648</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>8.300000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>56035722</t>
+          <t>56020297</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>56024896</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>56027303</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>56035722</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>56040135</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>2</v>
-      </c>
-      <c r="C30" t="n">
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D33" t="n">
         <v>0.9</v>
       </c>
     </row>
